--- a/CustomLocalization/Localization/RogueTech/RU/CivilWar UrbanWarfare/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/CivilWar UrbanWarfare/LocalizationDef.xlsx
@@ -205,8 +205,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+  <cellXfs count="4">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
@@ -513,182 +512,183 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" customWidth="1" style="2"/>
+    <col min="1" max="1" width="9.140625" customWidth="1" style="2"/>
+    <col min="2" max="16384" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="3" customFormat="1">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" s="4" customFormat="1">
-      <c r="A4" s="4" t="s">
+    <row r="4" s="3" customFormat="1">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" s="4" customFormat="1">
-      <c r="A7" s="4" t="s">
+    <row r="7" s="3" customFormat="1">
+      <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" s="4" customFormat="1">
-      <c r="A10" s="4" t="s">
+    <row r="10" s="3" customFormat="1">
+      <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" s="4" customFormat="1">
-      <c r="A13" s="4" t="s">
+    <row r="13" s="3" customFormat="1">
+      <c r="A13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" s="4" customFormat="1">
-      <c r="A14" s="4" t="s">
+    <row r="14" s="3" customFormat="1">
+      <c r="A14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" s="4" customFormat="1">
-      <c r="A15" s="4" t="s">
+    <row r="15" s="3" customFormat="1">
+      <c r="A15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" s="4" customFormat="1">
-      <c r="A16" s="4" t="s">
+    <row r="16" s="3" customFormat="1">
+      <c r="A16" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>23</v>
       </c>
     </row>

--- a/CustomLocalization/Localization/RogueTech/RU/CivilWar UrbanWarfare/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/CivilWar UrbanWarfare/LocalizationDef.xlsx
@@ -205,7 +205,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
@@ -512,183 +513,182 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1" style="2"/>
-    <col min="2" max="16384" width="9.140625" customWidth="1" style="2"/>
+    <col min="1" max="16384" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="4" customFormat="1">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1">
-      <c r="A4" s="3" t="s">
+    <row r="4" s="4" customFormat="1">
+      <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1">
-      <c r="A7" s="3" t="s">
+    <row r="7" s="4" customFormat="1">
+      <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" s="3" customFormat="1">
-      <c r="A10" s="3" t="s">
+    <row r="10" s="4" customFormat="1">
+      <c r="A10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" s="3" customFormat="1">
-      <c r="A13" s="3" t="s">
+    <row r="13" s="4" customFormat="1">
+      <c r="A13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" s="3" customFormat="1">
-      <c r="A14" s="3" t="s">
+    <row r="14" s="4" customFormat="1">
+      <c r="A14" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" s="3" customFormat="1">
-      <c r="A15" s="3" t="s">
+    <row r="15" s="4" customFormat="1">
+      <c r="A15" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" s="3" customFormat="1">
-      <c r="A16" s="3" t="s">
+    <row r="16" s="4" customFormat="1">
+      <c r="A16" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="4" t="s">
         <v>23</v>
       </c>
     </row>

--- a/CustomLocalization/Localization/RogueTech/RU/CivilWar UrbanWarfare/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/CivilWar UrbanWarfare/LocalizationDef.xlsx
@@ -20,17 +20,13 @@
   </si>
   <si>
     <t xml:space="preserve">The Raven LR 'Dagger' sports a prototype Electronics Warfare suite, Stealth Armor, TAG, and HayWire and NARC launchers.
- &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Nimble&lt;/color&gt;&lt;/b&gt;
- &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.06&lt;/color&gt;&lt;/b&gt;
----
-The Raven LR 'Dagger' sports a prototype Electronics Warfare suite, Stealth Armor, TAG, and HayWire and NARC launchers.
 &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Nimble&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.06&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">The Raven LR 'Dagger' sports a prototype Electronics Warfare suite, Stealth Armor, TAG, and HayWire and NARC launchers.
- &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Nimble&lt;/color&gt;&lt;/b&gt;
- &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.06&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Nimble&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.06&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_Dagger_RVN-LR.StockRole</t>
@@ -52,17 +48,13 @@
   </si>
   <si>
     <t xml:space="preserve">The Javelin is an extremely effective ambusher and superb reconnaissance mech.
- &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Easy to Maintain&lt;/color&gt;&lt;/b&gt;
- &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 0.97&lt;/color&gt;&lt;/b&gt;
----
-The Javelin is an extremely effective ambusher and superb reconnaissance mech.
 &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Easy to Maintain&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 0.97&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">The Javelin is an extremely effective ambusher and superb reconnaissance mech.
- &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Easy to Maintain&lt;/color&gt;&lt;/b&gt;
- &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 0.97&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Easy to Maintain&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 0.97&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_javelin_JVN-11D.StockRole</t>
@@ -81,17 +73,13 @@
   </si>
   <si>
     <t xml:space="preserve">This variant of the Raven incorporates the Confederation's new Stealth Armor. The 'Mech carries six tons of Stealth Armor and also uses ten double heat sinks for greater heat dissipation capabilities.
- &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Jammer&lt;/color&gt;&lt;/b&gt;
- &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.05&lt;/color&gt;&lt;/b&gt;
----
-This variant of the Raven incorporates the Confederation's new Stealth Armor. The 'Mech carries six tons of Stealth Armor and also uses ten double heat sinks for greater heat dissipation capabilities.
 &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Jammer&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.05&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">This variant of the Raven incorporates the Confederation's new Stealth Armor. The 'Mech carries six tons of Stealth Armor and also uses ten double heat sinks for greater heat dissipation capabilities.
- &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Jammer&lt;/color&gt;&lt;/b&gt;
- &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.05&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Jammer&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.05&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_raven_RVN-4L.StockRole</t>
@@ -107,17 +95,13 @@
   </si>
   <si>
     <t xml:space="preserve">The Raven was a light-weight electronic warfare BattleMech which, when it first debuted after the end of the Third Succession War, was not just one of the first truly original 'Mech designs produced in centuries, but also represented humanity's refusal to slide back technologically. This variant of the 4L allows the Raven to integrate with a C3 network by removing the 4L's active probe. It is replaced by a C3 Slave Unit and an ER Small Laser.
- &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Jammer&lt;/color&gt;&lt;/b&gt;
- &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.05&lt;/color&gt;&lt;/b&gt;
----
-The Raven was a light-weight electronic warfare BattleMech which, when it first debuted after the end of the Third Succession War, was not just one of the first truly original 'Mech designs produced in centuries, but also represented humanity's refusal to slide back technologically. This variant of the 4L allows the Raven to integrate with a C3 network by removing the 4L's active probe. It is replaced by a C3 Slave Unit and an ER Small Laser.
 &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Jammer&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.05&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">The Raven was a light-weight electronic warfare BattleMech which, when it first debuted after the end of the Third Succession War, was not just one of the first truly original 'Mech designs produced in centuries, but also represented humanity's refusal to slide back technologically. This variant of the 4L allows the Raven to integrate with a C3 network by removing the 4L's active probe. It is replaced by a C3 Slave Unit and an ER Small Laser.
- &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Jammer&lt;/color&gt;&lt;/b&gt;
- &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.05&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Jammer&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.05&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_raven_RVN-4LC.StockRole</t>
@@ -136,34 +120,26 @@
   </si>
   <si>
     <t xml:space="preserve">The Fire Javelin is a dangerous 'Mech for its tonnage, especially against other light mechs and some mediums. The JVN-10F also makes a decent light 'Mech hunter-killer.
- &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Easy to Maintain&lt;/color&gt;&lt;/b&gt;
- &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 0.97&lt;/color&gt;&lt;/b&gt;
----
-The Fire Javelin is a dangerous 'Mech for its tonnage, especially against other light mechs and some mediums. The JVN-10F also makes a decent light 'Mech hunter-killer.
 &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Easy to Maintain&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 0.97&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">The Fire Javelin is a dangerous 'Mech for its tonnage, especially against other light mechs and some mediums. The JVN-10F also makes a decent light 'Mech hunter-killer.
- &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Easy to Maintain&lt;/color&gt;&lt;/b&gt;
- &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 0.97&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Easy to Maintain&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 0.97&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>mechdef_raven_RVN-4L.Description.Details</t>
   </si>
   <si>
     <t xml:space="preserve">The Raven was a light-weight electronic warfare BattleMech which, when it first debuted after the end of the Third Succession War, was not just one of the first truly original 'Mech designs produced in centuries, but also represented humanity's refusal to slide back technologically.
- &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Jammer&lt;/color&gt;&lt;/b&gt;
- &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.05&lt;/color&gt;&lt;/b&gt;
----
-The Raven was a light-weight electronic warfare BattleMech which, when it first debuted after the end of the Third Succession War, was not just one of the first truly original 'Mech designs produced in centuries, but also represented humanity's refusal to slide back technologically.
 &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Jammer&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.05&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">The Raven was a light-weight electronic warfare BattleMech which, when it first debuted after the end of the Third Succession War, was not just one of the first truly original 'Mech designs produced in centuries, but also represented humanity's refusal to slide back technologically.
- &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Jammer&lt;/color&gt;&lt;/b&gt;
- &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.05&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Jammer&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.05&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>mechdef_raven_RVN-4LC.Description.Details</t>
@@ -180,17 +156,12 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000" tint="0"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -209,7 +180,7 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -504,27 +475,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C16"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1" style="2"/>
-    <col min="2" max="16384" width="9.140625" customWidth="1" style="2"/>
+    <col min="1" max="3" width="74.42578125" customWidth="1" style="2"/>
+    <col min="4" max="16384" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1">
-      <c r="A1" s="3" t="s">
+    <row r="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
+      </c>
+      <c r="E1" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="2">
@@ -537,6 +511,9 @@
       <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="E2" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
@@ -548,16 +525,22 @@
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" s="3" customFormat="1">
-      <c r="A4" s="3" t="s">
+      <c r="E3" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="E4" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -570,6 +553,9 @@
       <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E5" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
@@ -581,16 +567,22 @@
       <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" s="3" customFormat="1">
-      <c r="A7" s="3" t="s">
+      <c r="E6" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>17</v>
+      </c>
+      <c r="E7" s="2">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -603,6 +595,9 @@
       <c r="C8" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="E8" s="2">
+        <v>8</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
@@ -614,16 +609,22 @@
       <c r="C9" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" s="3" customFormat="1">
-      <c r="A10" s="3" t="s">
+      <c r="E9" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>23</v>
+      </c>
+      <c r="E10" s="2">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -636,6 +637,9 @@
       <c r="C11" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="E11" s="2">
+        <v>11</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
@@ -647,53 +651,69 @@
       <c r="C12" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" s="3" customFormat="1">
-      <c r="A13" s="3" t="s">
+      <c r="E12" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" s="3" customFormat="1">
-      <c r="A14" s="3" t="s">
+      <c r="E13" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" s="3" customFormat="1">
-      <c r="A15" s="3" t="s">
+      <c r="E14" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="16" s="3" customFormat="1">
-      <c r="A16" s="3" t="s">
+      <c r="E15" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>23</v>
+      </c>
+      <c r="E16" s="2">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/CustomLocalization/Localization/RogueTech/RU/CivilWar UrbanWarfare/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/CivilWar UrbanWarfare/LocalizationDef.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>chassisdef_Dagger_RVN-LR.Description.Details</t>
   </si>
@@ -24,9 +24,9 @@
 &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.06&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">The Raven LR 'Dagger' sports a prototype Electronics Warfare suite, Stealth Armor, TAG, and HayWire and NARC launchers.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Nimble&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.06&lt;/color&gt;&lt;/b&gt;</t>
+    <t xml:space="preserve">Raven LR 'Кинжал' носит прототипную EWS, стелс-броню, TAG, а также пусковые установки NARC и HayWire.
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Шустрый&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.06&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_Dagger_RVN-LR.StockRole</t>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>The Raven LR 'Dagger' sports a prototype Electronics Warfare suite, Stealth Armor, TAG, and HayWire and NARC launchers.</t>
+  </si>
+  <si>
+    <t>Raven LR 'Кинжал' носит прототипную EWS, стелс-броню, TAG, а также пусковые установки NARC и HayWire.</t>
   </si>
   <si>
     <t>chassisdef_javelin_JVN-11D.Description.Details</t>
@@ -52,9 +55,9 @@
 &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 0.97&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">The Javelin is an extremely effective ambusher and superb reconnaissance mech.
+    <t xml:space="preserve">Javelin крайне эффективен при устройстве засад и прекрасный разведывательный мех.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Easy to Maintain&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 0.97&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 0.97&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_javelin_JVN-11D.StockRole</t>
@@ -63,10 +66,16 @@
     <t>Scout &amp; Ambusher</t>
   </si>
   <si>
+    <t>Боевой разведчик</t>
+  </si>
+  <si>
     <t>chassisdef_javelin_JVN-11D.YangsThoughts</t>
   </si>
   <si>
     <t>The Javelin is a dangerous 'Mech for its tonnage, especially against other light mechs and some mediums. The JVN-10F also makes a decent light 'Mech hunter-killer.</t>
+  </si>
+  <si>
+    <t>Javelin - опасный мех для своего тоннажа, особенно против других легких и некоторых средних мехов. JVN-10F также неплохо справляется с поиском и уничтожением легких мехов.</t>
   </si>
   <si>
     <t>chassisdef_raven_RVN-4L.Description.Details</t>
@@ -77,9 +86,9 @@
 &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.05&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">This variant of the Raven incorporates the Confederation's new Stealth Armor. The 'Mech carries six tons of Stealth Armor and also uses ten double heat sinks for greater heat dissipation capabilities.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Jammer&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.05&lt;/color&gt;&lt;/b&gt;</t>
+    <t xml:space="preserve">Этот вариант меха Raven включает в себя новую стелс-броню Конфедерации. Мех несет шесть тонн стелс-брони и оснащен десятью двойными хитсинками для лучшего рассеивания тепла.
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Глушитель&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.05&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_raven_RVN-4L.StockRole</t>
@@ -89,6 +98,9 @@
   </si>
   <si>
     <t>The Raven was a light-weight electronic warfare BattleMech which, when it first debuted after the end of the Third Succession War, was not just one of the first truly original 'Mech designs produced in centuries, but also represented humanity's refusal to slide back technologically.</t>
+  </si>
+  <si>
+    <t>Raven - это легковесный боевой мех-радиоподавитель, который впервые дебютировал после окончания Третьей войны за Наследство. Он был не только одним из первых действительно оригинальных мехов, созданных за столетия, но и символизировал собой отказ человечества от технологического регресса.</t>
   </si>
   <si>
     <t>chassisdef_raven_RVN-4LC.Description.Details</t>
@@ -99,9 +111,9 @@
 &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.05&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">The Raven was a light-weight electronic warfare BattleMech which, when it first debuted after the end of the Third Succession War, was not just one of the first truly original 'Mech designs produced in centuries, but also represented humanity's refusal to slide back technologically. This variant of the 4L allows the Raven to integrate with a C3 network by removing the 4L's active probe. It is replaced by a C3 Slave Unit and an ER Small Laser.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Jammer&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.05&lt;/color&gt;&lt;/b&gt;</t>
+    <t xml:space="preserve">Raven - это легковесный боевой мех-радиоподавитель, который впервые дебютировал после окончания Третьей войны за Наследство. Он был не только одним из первых действительно оригинальных мехов, созданных за столетия, но и символизировал собой отказ человечества от технологического регресса. Этот вариант 4L позволяет Raven подключаться к сети C3 за счёт замены активного зонда на C3 Slave и ER Small Laser.
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Глушитель&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.05&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_raven_RVN-4LC.StockRole</t>
@@ -111,6 +123,9 @@
   </si>
   <si>
     <t>The Raven was a light-weight electronic warfare BattleMech which, when it first debuted after the end of the Third Succession War, was not just one of the first truly original 'Mech designs produced in centuries, but also represented humanity's refusal to slide back technologically. This variant of the 4L allows the Raven to integrate with a C3 network by removing the 4L's active probe. It is replaced by a C3 Slave Unit and an ER Small Laser.</t>
+  </si>
+  <si>
+    <t>Raven - это легковесный боевой мех-радиоподавитель, который впервые дебютировал после окончания Третьей войны за Наследство. Он был не только одним из первых действительно оригинальных мехов, созданных за столетия, но и символизировал собой отказ человечества от технологического регресса. Этот вариант 4L позволяет Raven подключаться к сети C3 за счёт замены активного зонда на C3 Slave и ER Small Laser.</t>
   </si>
   <si>
     <t>mechdef_Dagger_RVN-LR.Description.Details</t>
@@ -124,9 +139,9 @@
 &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 0.97&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">The Fire Javelin is a dangerous 'Mech for its tonnage, especially against other light mechs and some mediums. The JVN-10F also makes a decent light 'Mech hunter-killer.
+    <t xml:space="preserve">Fire Javelin - опасный мех для своего тоннажа, особенно против других легких и некоторых средних мехов. JVN-10F также неплохо справляется с поиском и уничтожением легких мехов.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Easy to Maintain&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 0.97&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 0.97&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>mechdef_raven_RVN-4L.Description.Details</t>
@@ -137,9 +152,9 @@
 &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.05&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">The Raven was a light-weight electronic warfare BattleMech which, when it first debuted after the end of the Third Succession War, was not just one of the first truly original 'Mech designs produced in centuries, but also represented humanity's refusal to slide back technologically.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Jammer&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.05&lt;/color&gt;&lt;/b&gt;</t>
+    <t xml:space="preserve">Raven - это легковесный боевой мех-радиоподавитель, который впервые дебютировал после окончания Третьей войны за Наследство. Он был не только одним из первых действительно оригинальных мехов, созданных за столетия, но и символизировал собой отказ человечества от технологического регресса.
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Глушитель&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.05&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>mechdef_raven_RVN-4LC.Description.Details</t>
@@ -176,7 +191,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
@@ -478,13 +494,14 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="3" width="74.42578125" customWidth="1" style="2"/>
-    <col min="4" max="16384" width="9.140625" customWidth="1" style="2"/>
+    <col min="4" max="4" width="9.140625" customWidth="1" style="2"/>
+    <col min="5" max="16384" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -494,7 +511,7 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2">
@@ -508,7 +525,7 @@
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="2">
@@ -522,8 +539,8 @@
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
+      <c r="C3" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="E3" s="2">
         <v>3</v>
@@ -531,13 +548,13 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="E4" s="2">
         <v>4</v>
@@ -545,13 +562,13 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="E5" s="2">
         <v>5</v>
@@ -559,13 +576,13 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="E6" s="2">
         <v>6</v>
@@ -573,13 +590,13 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="E7" s="2">
         <v>7</v>
@@ -587,12 +604,12 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E8" s="2">
@@ -601,13 +618,13 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="E9" s="2">
         <v>9</v>
@@ -615,13 +632,13 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="E10" s="2">
         <v>10</v>
@@ -629,12 +646,12 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E11" s="2">
@@ -643,13 +660,13 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="E12" s="2">
         <v>12</v>
@@ -657,12 +674,12 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E13" s="2">
@@ -671,13 +688,13 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="E14" s="2">
         <v>14</v>
@@ -685,13 +702,13 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="E15" s="2">
         <v>15</v>
@@ -699,13 +716,13 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="E16" s="2">
         <v>16</v>

--- a/CustomLocalization/Localization/RogueTech/RU/CivilWar UrbanWarfare/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/CivilWar UrbanWarfare/LocalizationDef.xlsx
@@ -494,14 +494,14 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="3" width="74.42578125" customWidth="1" style="2"/>
-    <col min="4" max="4" width="9.140625" customWidth="1" style="2"/>
-    <col min="5" max="16384" width="9.140625" customWidth="1" style="2"/>
+    <col min="4" max="5" width="9.140625" customWidth="1" style="2"/>
+    <col min="6" max="16384" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1">
